--- a/371644077244601 - 51G 1 Monthly Stats.xlsx
+++ b/371644077244601 - 51G 1 Monthly Stats.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t> 1     Oct</t>
   </si>
@@ -299,7 +299,7 @@
     <t>gwl_value.median</t>
   </si>
   <si>
-    <t>R CODE</t>
+    <t>DEQ</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,14 +413,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="F6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3122,1456 +3120,1315 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="G1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
         <v>1939</v>
       </c>
-      <c r="B3" s="10">
+      <c r="C3">
         <v>15.67</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>1939</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>15.664999999999999</v>
       </c>
-      <c r="G3" s="10">
-        <v>15.67</v>
-      </c>
-      <c r="H3" s="11">
-        <v>15.664999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
         <v>1940</v>
       </c>
-      <c r="B4" s="10">
+      <c r="C4">
         <v>16.079999999999998</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>1940</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>16.074999999999999</v>
       </c>
-      <c r="G4" s="10">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="H4" s="11">
-        <v>16.074999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="I4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
         <v>1941</v>
       </c>
-      <c r="B5" s="10">
+      <c r="C5">
         <v>18.420000000000002</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>1941</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>18.420000000000002</v>
       </c>
-      <c r="G5" s="10">
+      <c r="I5" s="3">
+        <f>MAX(F3:F72)</f>
         <v>18.420000000000002</v>
       </c>
-      <c r="H5" s="11">
+      <c r="J5" s="3">
+        <f>_xlfn.PERCENTILE.EXC(F3:F72,0.9)</f>
+        <v>17.538</v>
+      </c>
+      <c r="K5" s="3">
+        <f>_xlfn.PERCENTILE.EXC(F3:F72,0.75)</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="L5" s="3">
+        <f>_xlfn.PERCENTILE.EXC(F3:F72,0.5)</f>
+        <v>16.295000000000002</v>
+      </c>
+      <c r="M5" s="3">
+        <f>_xlfn.PERCENTILE.EXC(F3:F72,0.25)</f>
+        <v>15.504999999999999</v>
+      </c>
+      <c r="N5" s="3">
+        <f>_xlfn.PERCENTILE.EXC(F3:F72,0.1)</f>
+        <v>14.3965</v>
+      </c>
+      <c r="O5" s="3">
+        <f>MIN(F3:F72)</f>
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>1942</v>
+      </c>
+      <c r="C6">
+        <v>17.72</v>
+      </c>
+      <c r="E6">
+        <v>1942</v>
+      </c>
+      <c r="F6">
+        <v>17.72</v>
+      </c>
+      <c r="I6" s="8">
         <v>18.420000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>1942</v>
-      </c>
-      <c r="B6" s="10">
-        <v>17.72</v>
-      </c>
-      <c r="C6">
-        <v>1942</v>
-      </c>
-      <c r="D6">
-        <v>17.72</v>
-      </c>
-      <c r="G6" s="10">
-        <v>17.72</v>
-      </c>
-      <c r="H6" s="11">
-        <v>17.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="J6" s="11">
+        <v>17.521999999999998</v>
+      </c>
+      <c r="K6" s="8">
+        <v>17.0975</v>
+      </c>
+      <c r="L6" s="8">
+        <v>16.295000000000002</v>
+      </c>
+      <c r="M6" s="11">
+        <v>15.535</v>
+      </c>
+      <c r="N6" s="11">
+        <v>14.4885</v>
+      </c>
+      <c r="O6" s="8">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
         <v>1943</v>
       </c>
-      <c r="B7" s="10">
+      <c r="C7">
         <v>17.87</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>1943</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>17.87</v>
       </c>
-      <c r="G7" s="10">
-        <v>17.87</v>
-      </c>
-      <c r="H7" s="11">
-        <v>17.87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
         <v>1944</v>
       </c>
-      <c r="B8" s="10">
+      <c r="C8">
         <v>17.420000000000002</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>1944</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>17.420000000000002</v>
       </c>
-      <c r="G8" s="10">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="H8" s="11">
-        <v>17.420000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>1945</v>
       </c>
-      <c r="B9" s="10">
+      <c r="C9">
         <v>14.58</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>1945</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>14.574999999999999</v>
       </c>
-      <c r="G9" s="10">
-        <v>14.58</v>
-      </c>
-      <c r="H9" s="11">
-        <v>14.574999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
         <v>1946</v>
       </c>
-      <c r="B10" s="10">
+      <c r="C10">
         <v>16.86</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>1946</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>16.855</v>
       </c>
-      <c r="G10" s="10">
-        <v>16.86</v>
-      </c>
-      <c r="H10" s="11">
-        <v>16.855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
         <v>1948</v>
       </c>
-      <c r="B11" s="10">
+      <c r="C11">
         <v>17.100000000000001</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>1948</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>17.100000000000001</v>
       </c>
-      <c r="G11" s="10">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>1950</v>
+      </c>
+      <c r="C12">
+        <v>16.22</v>
+      </c>
+      <c r="E12">
+        <v>1950</v>
+      </c>
+      <c r="F12">
+        <v>16.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>1951</v>
+      </c>
+      <c r="C13">
+        <v>17.09</v>
+      </c>
+      <c r="E13">
+        <v>1951</v>
+      </c>
+      <c r="F13">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>1952</v>
+      </c>
+      <c r="C14">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="E14">
+        <v>1952</v>
+      </c>
+      <c r="F14">
+        <v>16.420000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>1953</v>
+      </c>
+      <c r="C15">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="E15">
+        <v>1953</v>
+      </c>
+      <c r="F15">
+        <v>16.940000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1955</v>
+      </c>
+      <c r="C16">
+        <v>12.4</v>
+      </c>
+      <c r="E16">
+        <v>1955</v>
+      </c>
+      <c r="F16">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>1957</v>
+      </c>
+      <c r="C17">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E17">
+        <v>1957</v>
+      </c>
+      <c r="F17">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>1960</v>
+      </c>
+      <c r="C18">
+        <v>15.04</v>
+      </c>
+      <c r="E18">
+        <v>1960</v>
+      </c>
+      <c r="F18">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>1961</v>
+      </c>
+      <c r="C19">
+        <v>16.68</v>
+      </c>
+      <c r="E19">
+        <v>1961</v>
+      </c>
+      <c r="F19">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>1962</v>
+      </c>
+      <c r="C20">
+        <v>16.22</v>
+      </c>
+      <c r="E20">
+        <v>1962</v>
+      </c>
+      <c r="F20">
+        <v>16.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <v>1963</v>
+      </c>
+      <c r="C21">
+        <v>18.04</v>
+      </c>
+      <c r="E21">
+        <v>1963</v>
+      </c>
+      <c r="F21">
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1964</v>
+      </c>
+      <c r="C22">
+        <v>15.76</v>
+      </c>
+      <c r="E22">
+        <v>1964</v>
+      </c>
+      <c r="F22">
+        <v>15.76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23">
+        <v>1965</v>
+      </c>
+      <c r="C23">
+        <v>17.47</v>
+      </c>
+      <c r="E23">
+        <v>1965</v>
+      </c>
+      <c r="F23">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>1966</v>
+      </c>
+      <c r="C24">
+        <v>15.43</v>
+      </c>
+      <c r="E24">
+        <v>1966</v>
+      </c>
+      <c r="F24">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>1967</v>
+      </c>
+      <c r="C25">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="E25">
+        <v>1967</v>
+      </c>
+      <c r="F25">
+        <v>16.684999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>1968</v>
+      </c>
+      <c r="C26">
+        <v>17.52</v>
+      </c>
+      <c r="E26">
+        <v>1968</v>
+      </c>
+      <c r="F26">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>1969</v>
+      </c>
+      <c r="C27">
+        <v>15.06</v>
+      </c>
+      <c r="E27">
+        <v>1969</v>
+      </c>
+      <c r="F27">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>1970</v>
+      </c>
+      <c r="C28">
+        <v>16.91</v>
+      </c>
+      <c r="E28">
+        <v>1970</v>
+      </c>
+      <c r="F28">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>1971</v>
+      </c>
+      <c r="C29">
+        <v>15.33</v>
+      </c>
+      <c r="E29">
+        <v>1971</v>
+      </c>
+      <c r="F29">
+        <v>15.33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>1972</v>
+      </c>
+      <c r="C30">
+        <v>14.5</v>
+      </c>
+      <c r="E30">
+        <v>1972</v>
+      </c>
+      <c r="F30">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31">
+        <v>1973</v>
+      </c>
+      <c r="C31">
+        <v>17.54</v>
+      </c>
+      <c r="E31">
+        <v>1973</v>
+      </c>
+      <c r="F31">
+        <v>17.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>1974</v>
+      </c>
+      <c r="C32">
+        <v>15.34</v>
+      </c>
+      <c r="E32">
+        <v>1974</v>
+      </c>
+      <c r="F32">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>1975</v>
+      </c>
+      <c r="C33">
+        <v>13.88</v>
+      </c>
+      <c r="E33">
+        <v>1975</v>
+      </c>
+      <c r="F33">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>1976</v>
+      </c>
+      <c r="C34">
+        <v>15.98</v>
+      </c>
+      <c r="E34">
+        <v>1976</v>
+      </c>
+      <c r="F34">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>1977</v>
+      </c>
+      <c r="C35">
+        <v>16.88</v>
+      </c>
+      <c r="E35">
+        <v>1977</v>
+      </c>
+      <c r="F35">
+        <v>16.875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>1978</v>
+      </c>
+      <c r="C36">
+        <v>15.55</v>
+      </c>
+      <c r="E36">
+        <v>1978</v>
+      </c>
+      <c r="F36">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>1979</v>
+      </c>
+      <c r="C37">
+        <v>12.07</v>
+      </c>
+      <c r="E37">
+        <v>1979</v>
+      </c>
+      <c r="F37">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>1980</v>
+      </c>
+      <c r="C38">
+        <v>16.37</v>
+      </c>
+      <c r="E38">
+        <v>1980</v>
+      </c>
+      <c r="F38">
+        <v>16.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>1981</v>
+      </c>
+      <c r="C39">
+        <v>17.64</v>
+      </c>
+      <c r="E39">
+        <v>1981</v>
+      </c>
+      <c r="F39">
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>1982</v>
+      </c>
+      <c r="C40">
+        <v>16.77</v>
+      </c>
+      <c r="E40">
+        <v>1982</v>
+      </c>
+      <c r="F40">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>1983</v>
+      </c>
+      <c r="C41">
+        <v>17.16</v>
+      </c>
+      <c r="E41">
+        <v>1983</v>
+      </c>
+      <c r="F41">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>1984</v>
+      </c>
+      <c r="C42">
+        <v>17.29</v>
+      </c>
+      <c r="E42">
+        <v>1984</v>
+      </c>
+      <c r="F42">
+        <v>17.29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>1985</v>
+      </c>
+      <c r="C43">
+        <v>15.77</v>
+      </c>
+      <c r="E43">
+        <v>1985</v>
+      </c>
+      <c r="F43">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>1986</v>
+      </c>
+      <c r="C44">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="E44">
+        <v>1986</v>
+      </c>
+      <c r="F44">
+        <v>16.510000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>1987</v>
+      </c>
+      <c r="C45">
+        <v>17.27</v>
+      </c>
+      <c r="E45">
+        <v>1987</v>
+      </c>
+      <c r="F45">
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>1988</v>
+      </c>
+      <c r="C46">
+        <v>17.34</v>
+      </c>
+      <c r="E46">
+        <v>1988</v>
+      </c>
+      <c r="F46">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>1989</v>
+      </c>
+      <c r="C47">
+        <v>15.25</v>
+      </c>
+      <c r="E47">
+        <v>1989</v>
+      </c>
+      <c r="F47">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48">
+        <v>1990</v>
+      </c>
+      <c r="C48">
+        <v>15.87</v>
+      </c>
+      <c r="E48">
+        <v>1990</v>
+      </c>
+      <c r="F48">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>1991</v>
+      </c>
+      <c r="C49">
+        <v>17.13</v>
+      </c>
+      <c r="E49">
+        <v>1991</v>
+      </c>
+      <c r="F49">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>1992</v>
+      </c>
+      <c r="C50">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="E50">
+        <v>1992</v>
+      </c>
+      <c r="F50">
+        <v>17.010000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51">
+        <v>1993</v>
+      </c>
+      <c r="C51">
+        <v>17.91</v>
+      </c>
+      <c r="E51">
+        <v>1993</v>
+      </c>
+      <c r="F51">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52">
+        <v>1994</v>
+      </c>
+      <c r="C52">
+        <v>15.84</v>
+      </c>
+      <c r="E52">
+        <v>1994</v>
+      </c>
+      <c r="F52">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>1997</v>
+      </c>
+      <c r="C53">
         <v>17.100000000000001</v>
       </c>
-      <c r="H11" s="11">
+      <c r="E53">
+        <v>1997</v>
+      </c>
+      <c r="F53">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>1950</v>
-      </c>
-      <c r="B12" s="10">
-        <v>16.22</v>
-      </c>
-      <c r="C12">
-        <v>1950</v>
-      </c>
-      <c r="D12">
-        <v>16.22</v>
-      </c>
-      <c r="G12" s="10">
-        <v>16.22</v>
-      </c>
-      <c r="H12" s="11">
-        <v>16.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>1951</v>
-      </c>
-      <c r="B13" s="10">
-        <v>17.09</v>
-      </c>
-      <c r="C13">
-        <v>1951</v>
-      </c>
-      <c r="D13">
-        <v>17.09</v>
-      </c>
-      <c r="G13" s="10">
-        <v>17.09</v>
-      </c>
-      <c r="H13" s="11">
-        <v>17.09</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>1952</v>
-      </c>
-      <c r="B14" s="10">
-        <v>16.420000000000002</v>
-      </c>
-      <c r="C14">
-        <v>1952</v>
-      </c>
-      <c r="D14">
-        <v>16.420000000000002</v>
-      </c>
-      <c r="G14" s="10">
-        <v>16.420000000000002</v>
-      </c>
-      <c r="H14" s="11">
-        <v>16.420000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>1953</v>
-      </c>
-      <c r="B15" s="10">
-        <v>16.940000000000001</v>
-      </c>
-      <c r="C15">
-        <v>1953</v>
-      </c>
-      <c r="D15">
-        <v>16.940000000000001</v>
-      </c>
-      <c r="G15" s="10">
-        <v>16.940000000000001</v>
-      </c>
-      <c r="H15" s="11">
-        <v>16.940000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>1955</v>
-      </c>
-      <c r="B16" s="10">
-        <v>12.4</v>
-      </c>
-      <c r="C16">
-        <v>1955</v>
-      </c>
-      <c r="D16">
-        <v>12.4</v>
-      </c>
-      <c r="G16" s="10">
-        <v>12.4</v>
-      </c>
-      <c r="H16" s="11">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>1957</v>
-      </c>
-      <c r="B17" s="10">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C17">
-        <v>1957</v>
-      </c>
-      <c r="D17">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="G17" s="10">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="H17" s="11">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>1960</v>
-      </c>
-      <c r="B18" s="10">
-        <v>15.04</v>
-      </c>
-      <c r="C18">
-        <v>1960</v>
-      </c>
-      <c r="D18">
-        <v>15.04</v>
-      </c>
-      <c r="G18" s="10">
-        <v>15.04</v>
-      </c>
-      <c r="H18" s="11">
-        <v>15.04</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>1961</v>
-      </c>
-      <c r="B19" s="10">
-        <v>16.68</v>
-      </c>
-      <c r="C19">
-        <v>1961</v>
-      </c>
-      <c r="D19">
-        <v>16.68</v>
-      </c>
-      <c r="G19" s="10">
-        <v>16.68</v>
-      </c>
-      <c r="H19" s="11">
-        <v>16.68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>1962</v>
-      </c>
-      <c r="B20" s="10">
-        <v>16.22</v>
-      </c>
-      <c r="C20">
-        <v>1962</v>
-      </c>
-      <c r="D20">
-        <v>16.22</v>
-      </c>
-      <c r="G20" s="10">
-        <v>16.22</v>
-      </c>
-      <c r="H20" s="11">
-        <v>16.22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>1963</v>
-      </c>
-      <c r="B21" s="10">
-        <v>18.04</v>
-      </c>
-      <c r="C21">
-        <v>1963</v>
-      </c>
-      <c r="D21">
-        <v>18.04</v>
-      </c>
-      <c r="G21" s="10">
-        <v>18.04</v>
-      </c>
-      <c r="H21" s="11">
-        <v>18.04</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>1964</v>
-      </c>
-      <c r="B22" s="10">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>1998</v>
+      </c>
+      <c r="C54">
+        <v>17.38</v>
+      </c>
+      <c r="E54">
+        <v>1998</v>
+      </c>
+      <c r="F54">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55">
+        <v>2000</v>
+      </c>
+      <c r="C55">
+        <v>16.46</v>
+      </c>
+      <c r="E55">
+        <v>2000</v>
+      </c>
+      <c r="F55">
+        <v>16.46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56">
+        <v>2001</v>
+      </c>
+      <c r="C56">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="E56">
+        <v>2001</v>
+      </c>
+      <c r="F56">
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>2002</v>
+      </c>
+      <c r="C57">
+        <v>15.78</v>
+      </c>
+      <c r="E57">
+        <v>2002</v>
+      </c>
+      <c r="F57">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>2003</v>
+      </c>
+      <c r="C58">
+        <v>13.7</v>
+      </c>
+      <c r="E58">
+        <v>2003</v>
+      </c>
+      <c r="F58">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>2004</v>
+      </c>
+      <c r="C59">
+        <v>13.4</v>
+      </c>
+      <c r="E59">
+        <v>2004</v>
+      </c>
+      <c r="F59">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>2006</v>
+      </c>
+      <c r="C60">
+        <v>13.34</v>
+      </c>
+      <c r="E60">
+        <v>2006</v>
+      </c>
+      <c r="F60">
+        <v>13.335000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61">
+        <v>2007</v>
+      </c>
+      <c r="C61">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="E61">
+        <v>2007</v>
+      </c>
+      <c r="F61">
+        <v>16.489999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>2008</v>
+      </c>
+      <c r="C62">
+        <v>15.87</v>
+      </c>
+      <c r="E62">
+        <v>2008</v>
+      </c>
+      <c r="F62">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63">
+        <v>2009</v>
+      </c>
+      <c r="C63">
+        <v>16.54</v>
+      </c>
+      <c r="E63">
+        <v>2009</v>
+      </c>
+      <c r="F63">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64">
+        <v>2010</v>
+      </c>
+      <c r="C64">
+        <v>15.53</v>
+      </c>
+      <c r="E64">
+        <v>2010</v>
+      </c>
+      <c r="F64">
+        <v>15.53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>2011</v>
+      </c>
+      <c r="C65">
+        <v>14.39</v>
+      </c>
+      <c r="E65">
+        <v>2011</v>
+      </c>
+      <c r="F65">
+        <v>14.385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66">
+        <v>2012</v>
+      </c>
+      <c r="C66">
         <v>15.76</v>
       </c>
-      <c r="C22">
-        <v>1964</v>
-      </c>
-      <c r="D22">
-        <v>15.76</v>
-      </c>
-      <c r="G22" s="10">
-        <v>15.76</v>
-      </c>
-      <c r="H22" s="11">
-        <v>15.76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>1965</v>
-      </c>
-      <c r="B23" s="10">
-        <v>17.47</v>
-      </c>
-      <c r="C23">
-        <v>1965</v>
-      </c>
-      <c r="D23">
-        <v>17.47</v>
-      </c>
-      <c r="G23" s="10">
-        <v>17.47</v>
-      </c>
-      <c r="H23" s="11">
-        <v>17.47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>1966</v>
-      </c>
-      <c r="B24" s="10">
-        <v>15.43</v>
-      </c>
-      <c r="C24">
-        <v>1966</v>
-      </c>
-      <c r="D24">
-        <v>15.43</v>
-      </c>
-      <c r="G24" s="10">
-        <v>15.43</v>
-      </c>
-      <c r="H24" s="11">
-        <v>15.43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>1967</v>
-      </c>
-      <c r="B25" s="10">
-        <v>16.690000000000001</v>
-      </c>
-      <c r="C25">
-        <v>1967</v>
-      </c>
-      <c r="D25">
-        <v>16.684999999999999</v>
-      </c>
-      <c r="G25" s="10">
-        <v>16.690000000000001</v>
-      </c>
-      <c r="H25" s="11">
-        <v>16.684999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>1968</v>
-      </c>
-      <c r="B26" s="10">
-        <v>17.52</v>
-      </c>
-      <c r="C26">
-        <v>1968</v>
-      </c>
-      <c r="D26">
-        <v>17.52</v>
-      </c>
-      <c r="G26" s="10">
-        <v>17.52</v>
-      </c>
-      <c r="H26" s="11">
-        <v>17.52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>1969</v>
-      </c>
-      <c r="B27" s="10">
-        <v>15.06</v>
-      </c>
-      <c r="C27">
-        <v>1969</v>
-      </c>
-      <c r="D27">
-        <v>15.06</v>
-      </c>
-      <c r="G27" s="10">
-        <v>15.06</v>
-      </c>
-      <c r="H27" s="11">
-        <v>15.06</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>1970</v>
-      </c>
-      <c r="B28" s="10">
-        <v>16.91</v>
-      </c>
-      <c r="C28">
-        <v>1970</v>
-      </c>
-      <c r="D28">
-        <v>16.91</v>
-      </c>
-      <c r="G28" s="10">
-        <v>16.91</v>
-      </c>
-      <c r="H28" s="11">
-        <v>16.91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>1971</v>
-      </c>
-      <c r="B29" s="10">
-        <v>15.33</v>
-      </c>
-      <c r="C29">
-        <v>1971</v>
-      </c>
-      <c r="D29">
-        <v>15.33</v>
-      </c>
-      <c r="G29" s="10">
-        <v>15.33</v>
-      </c>
-      <c r="H29" s="11">
-        <v>15.33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>1972</v>
-      </c>
-      <c r="B30" s="10">
-        <v>14.5</v>
-      </c>
-      <c r="C30">
-        <v>1972</v>
-      </c>
-      <c r="D30">
-        <v>14.5</v>
-      </c>
-      <c r="G30" s="10">
-        <v>14.5</v>
-      </c>
-      <c r="H30" s="11">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>1973</v>
-      </c>
-      <c r="B31" s="10">
-        <v>17.54</v>
-      </c>
-      <c r="C31">
-        <v>1973</v>
-      </c>
-      <c r="D31">
-        <v>17.54</v>
-      </c>
-      <c r="G31" s="10">
-        <v>17.54</v>
-      </c>
-      <c r="H31" s="11">
-        <v>17.54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>1974</v>
-      </c>
-      <c r="B32" s="10">
-        <v>15.34</v>
-      </c>
-      <c r="C32">
-        <v>1974</v>
-      </c>
-      <c r="D32">
-        <v>15.34</v>
-      </c>
-      <c r="G32" s="10">
-        <v>15.34</v>
-      </c>
-      <c r="H32" s="11">
-        <v>15.34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>1975</v>
-      </c>
-      <c r="B33" s="10">
-        <v>13.88</v>
-      </c>
-      <c r="C33">
-        <v>1975</v>
-      </c>
-      <c r="D33">
-        <v>13.88</v>
-      </c>
-      <c r="G33" s="10">
-        <v>13.88</v>
-      </c>
-      <c r="H33" s="11">
-        <v>13.88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>1976</v>
-      </c>
-      <c r="B34" s="10">
-        <v>15.98</v>
-      </c>
-      <c r="C34">
-        <v>1976</v>
-      </c>
-      <c r="D34">
-        <v>15.98</v>
-      </c>
-      <c r="G34" s="10">
-        <v>15.98</v>
-      </c>
-      <c r="H34" s="11">
-        <v>15.98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>1977</v>
-      </c>
-      <c r="B35" s="10">
-        <v>16.88</v>
-      </c>
-      <c r="C35">
-        <v>1977</v>
-      </c>
-      <c r="D35">
-        <v>16.875</v>
-      </c>
-      <c r="G35" s="10">
-        <v>16.88</v>
-      </c>
-      <c r="H35" s="11">
-        <v>16.875</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>1978</v>
-      </c>
-      <c r="B36" s="10">
-        <v>15.55</v>
-      </c>
-      <c r="C36">
-        <v>1978</v>
-      </c>
-      <c r="D36">
-        <v>15.55</v>
-      </c>
-      <c r="G36" s="10">
-        <v>15.55</v>
-      </c>
-      <c r="H36" s="11">
-        <v>15.55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>1979</v>
-      </c>
-      <c r="B37" s="10">
-        <v>12.07</v>
-      </c>
-      <c r="C37">
-        <v>1979</v>
-      </c>
-      <c r="D37">
-        <v>12.07</v>
-      </c>
-      <c r="G37" s="10">
-        <v>12.07</v>
-      </c>
-      <c r="H37" s="11">
-        <v>12.07</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>1980</v>
-      </c>
-      <c r="B38" s="10">
-        <v>16.37</v>
-      </c>
-      <c r="C38">
-        <v>1980</v>
-      </c>
-      <c r="D38">
-        <v>16.37</v>
-      </c>
-      <c r="G38" s="10">
-        <v>16.37</v>
-      </c>
-      <c r="H38" s="11">
-        <v>16.37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>1981</v>
-      </c>
-      <c r="B39" s="10">
-        <v>17.64</v>
-      </c>
-      <c r="C39">
-        <v>1981</v>
-      </c>
-      <c r="D39">
-        <v>17.64</v>
-      </c>
-      <c r="G39" s="10">
-        <v>17.64</v>
-      </c>
-      <c r="H39" s="11">
-        <v>17.64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>1982</v>
-      </c>
-      <c r="B40" s="10">
-        <v>16.77</v>
-      </c>
-      <c r="C40">
-        <v>1982</v>
-      </c>
-      <c r="D40">
-        <v>16.77</v>
-      </c>
-      <c r="G40" s="10">
-        <v>16.77</v>
-      </c>
-      <c r="H40" s="11">
-        <v>16.77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>1983</v>
-      </c>
-      <c r="B41" s="10">
-        <v>17.16</v>
-      </c>
-      <c r="C41">
-        <v>1983</v>
-      </c>
-      <c r="D41">
-        <v>17.16</v>
-      </c>
-      <c r="G41" s="10">
-        <v>17.16</v>
-      </c>
-      <c r="H41" s="11">
-        <v>17.16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>1984</v>
-      </c>
-      <c r="B42" s="10">
-        <v>17.29</v>
-      </c>
-      <c r="C42">
-        <v>1984</v>
-      </c>
-      <c r="D42">
-        <v>17.29</v>
-      </c>
-      <c r="G42" s="10">
-        <v>17.29</v>
-      </c>
-      <c r="H42" s="11">
-        <v>17.29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>1985</v>
-      </c>
-      <c r="B43" s="10">
+      <c r="E66">
+        <v>2012</v>
+      </c>
+      <c r="F66">
+        <v>15.755000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67">
+        <v>2013</v>
+      </c>
+      <c r="C67">
         <v>15.77</v>
       </c>
-      <c r="C43">
-        <v>1985</v>
-      </c>
-      <c r="D43">
+      <c r="E67">
+        <v>2013</v>
+      </c>
+      <c r="F67">
         <v>15.77</v>
       </c>
-      <c r="G43" s="10">
-        <v>15.77</v>
-      </c>
-      <c r="H43" s="11">
-        <v>15.77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>1986</v>
-      </c>
-      <c r="B44" s="10">
-        <v>16.510000000000002</v>
-      </c>
-      <c r="C44">
-        <v>1986</v>
-      </c>
-      <c r="D44">
-        <v>16.510000000000002</v>
-      </c>
-      <c r="G44" s="10">
-        <v>16.510000000000002</v>
-      </c>
-      <c r="H44" s="11">
-        <v>16.510000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>1987</v>
-      </c>
-      <c r="B45" s="10">
-        <v>17.27</v>
-      </c>
-      <c r="C45">
-        <v>1987</v>
-      </c>
-      <c r="D45">
-        <v>17.27</v>
-      </c>
-      <c r="G45" s="10">
-        <v>17.27</v>
-      </c>
-      <c r="H45" s="11">
-        <v>17.27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <v>1988</v>
-      </c>
-      <c r="B46" s="10">
-        <v>17.34</v>
-      </c>
-      <c r="C46">
-        <v>1988</v>
-      </c>
-      <c r="D46">
-        <v>17.34</v>
-      </c>
-      <c r="G46" s="10">
-        <v>17.34</v>
-      </c>
-      <c r="H46" s="11">
-        <v>17.34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>1989</v>
-      </c>
-      <c r="B47" s="10">
-        <v>15.25</v>
-      </c>
-      <c r="C47">
-        <v>1989</v>
-      </c>
-      <c r="D47">
-        <v>15.25</v>
-      </c>
-      <c r="G47" s="10">
-        <v>15.25</v>
-      </c>
-      <c r="H47" s="11">
-        <v>15.25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <v>1990</v>
-      </c>
-      <c r="B48" s="10">
-        <v>15.87</v>
-      </c>
-      <c r="C48">
-        <v>1990</v>
-      </c>
-      <c r="D48">
-        <v>15.87</v>
-      </c>
-      <c r="G48" s="10">
-        <v>15.87</v>
-      </c>
-      <c r="H48" s="11">
-        <v>15.87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>1991</v>
-      </c>
-      <c r="B49" s="10">
-        <v>17.13</v>
-      </c>
-      <c r="C49">
-        <v>1991</v>
-      </c>
-      <c r="D49">
-        <v>17.13</v>
-      </c>
-      <c r="G49" s="10">
-        <v>17.13</v>
-      </c>
-      <c r="H49" s="11">
-        <v>17.13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <v>1992</v>
-      </c>
-      <c r="B50" s="10">
-        <v>17.010000000000002</v>
-      </c>
-      <c r="C50">
-        <v>1992</v>
-      </c>
-      <c r="D50">
-        <v>17.010000000000002</v>
-      </c>
-      <c r="G50" s="10">
-        <v>17.010000000000002</v>
-      </c>
-      <c r="H50" s="11">
-        <v>17.010000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>1993</v>
-      </c>
-      <c r="B51" s="10">
-        <v>17.91</v>
-      </c>
-      <c r="C51">
-        <v>1993</v>
-      </c>
-      <c r="D51">
-        <v>17.91</v>
-      </c>
-      <c r="G51" s="10">
-        <v>17.91</v>
-      </c>
-      <c r="H51" s="11">
-        <v>17.91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>1994</v>
-      </c>
-      <c r="B52" s="10">
-        <v>15.84</v>
-      </c>
-      <c r="C52">
-        <v>1994</v>
-      </c>
-      <c r="D52">
-        <v>15.84</v>
-      </c>
-      <c r="G52" s="10">
-        <v>15.84</v>
-      </c>
-      <c r="H52" s="11">
-        <v>15.84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>1997</v>
-      </c>
-      <c r="B53" s="10">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C53">
-        <v>1997</v>
-      </c>
-      <c r="D53">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G53" s="10">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H53" s="11">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>1998</v>
-      </c>
-      <c r="B54" s="10">
-        <v>17.38</v>
-      </c>
-      <c r="C54">
-        <v>1998</v>
-      </c>
-      <c r="D54">
-        <v>17.38</v>
-      </c>
-      <c r="G54" s="10">
-        <v>17.38</v>
-      </c>
-      <c r="H54" s="11">
-        <v>17.38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>2000</v>
-      </c>
-      <c r="B55" s="10">
-        <v>16.46</v>
-      </c>
-      <c r="C55">
-        <v>2000</v>
-      </c>
-      <c r="D55">
-        <v>16.46</v>
-      </c>
-      <c r="G55" s="10">
-        <v>16.46</v>
-      </c>
-      <c r="H55" s="11">
-        <v>16.46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
-        <v>2001</v>
-      </c>
-      <c r="B56" s="10">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="C56">
-        <v>2001</v>
-      </c>
-      <c r="D56">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="G56" s="10">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="H56" s="11">
-        <v>16.649999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B57" s="10">
-        <v>15.78</v>
-      </c>
-      <c r="C57">
-        <v>2002</v>
-      </c>
-      <c r="D57">
-        <v>15.78</v>
-      </c>
-      <c r="G57" s="10">
-        <v>15.78</v>
-      </c>
-      <c r="H57" s="11">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B58" s="10">
-        <v>13.7</v>
-      </c>
-      <c r="C58">
-        <v>2003</v>
-      </c>
-      <c r="D58">
-        <v>13.7</v>
-      </c>
-      <c r="G58" s="10">
-        <v>13.7</v>
-      </c>
-      <c r="H58" s="11">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B59" s="10">
-        <v>13.4</v>
-      </c>
-      <c r="C59">
-        <v>2004</v>
-      </c>
-      <c r="D59">
-        <v>13.4</v>
-      </c>
-      <c r="G59" s="10">
-        <v>13.4</v>
-      </c>
-      <c r="H59" s="11">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B60" s="10">
-        <v>13.34</v>
-      </c>
-      <c r="C60">
-        <v>2006</v>
-      </c>
-      <c r="D60">
-        <v>13.335000000000001</v>
-      </c>
-      <c r="G60" s="10">
-        <v>13.34</v>
-      </c>
-      <c r="H60" s="11">
-        <v>13.335000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B61" s="10">
-        <v>16.489999999999998</v>
-      </c>
-      <c r="C61">
-        <v>2007</v>
-      </c>
-      <c r="D61">
-        <v>16.489999999999998</v>
-      </c>
-      <c r="G61" s="10">
-        <v>16.489999999999998</v>
-      </c>
-      <c r="H61" s="11">
-        <v>16.489999999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B62" s="10">
-        <v>15.87</v>
-      </c>
-      <c r="C62">
-        <v>2008</v>
-      </c>
-      <c r="D62">
-        <v>15.87</v>
-      </c>
-      <c r="G62" s="10">
-        <v>15.87</v>
-      </c>
-      <c r="H62" s="11">
-        <v>15.87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B63" s="10">
-        <v>16.54</v>
-      </c>
-      <c r="C63">
-        <v>2009</v>
-      </c>
-      <c r="D63">
-        <v>16.54</v>
-      </c>
-      <c r="G63" s="10">
-        <v>16.54</v>
-      </c>
-      <c r="H63" s="11">
-        <v>16.54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B64" s="10">
-        <v>15.53</v>
-      </c>
-      <c r="C64">
-        <v>2010</v>
-      </c>
-      <c r="D64">
-        <v>15.53</v>
-      </c>
-      <c r="G64" s="10">
-        <v>15.53</v>
-      </c>
-      <c r="H64" s="11">
-        <v>15.53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B65" s="10">
-        <v>14.39</v>
-      </c>
-      <c r="C65">
-        <v>2011</v>
-      </c>
-      <c r="D65">
-        <v>14.385</v>
-      </c>
-      <c r="G65" s="10">
-        <v>14.39</v>
-      </c>
-      <c r="H65" s="11">
-        <v>14.385</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B66" s="10">
-        <v>15.76</v>
-      </c>
-      <c r="C66">
-        <v>2012</v>
-      </c>
-      <c r="D66">
-        <v>15.755000000000001</v>
-      </c>
-      <c r="G66" s="10">
-        <v>15.76</v>
-      </c>
-      <c r="H66" s="11">
-        <v>15.755000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B67" s="10">
-        <v>15.77</v>
-      </c>
-      <c r="C67">
-        <v>2013</v>
-      </c>
-      <c r="D67">
-        <v>15.77</v>
-      </c>
-      <c r="G67" s="10">
-        <v>15.77</v>
-      </c>
-      <c r="H67" s="11">
-        <v>15.77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68">
         <v>2014</v>
       </c>
-      <c r="B68" s="10">
+      <c r="C68">
         <v>16.45</v>
       </c>
-      <c r="C68">
+      <c r="E68">
         <v>2014</v>
       </c>
-      <c r="D68">
+      <c r="F68">
         <v>16.45</v>
       </c>
-      <c r="G68" s="10">
-        <v>16.45</v>
-      </c>
-      <c r="H68" s="11">
-        <v>16.45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69">
         <v>2015</v>
       </c>
-      <c r="B69" s="10">
+      <c r="C69">
         <v>15.86</v>
       </c>
-      <c r="C69">
+      <c r="E69">
         <v>2015</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <v>15.855</v>
       </c>
-      <c r="G69" s="10">
-        <v>15.86</v>
-      </c>
-      <c r="H69" s="11">
-        <v>15.855</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
         <v>2016</v>
       </c>
-      <c r="B70" s="10">
+      <c r="C70">
         <v>14.56</v>
       </c>
-      <c r="C70">
+      <c r="E70">
         <v>2016</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <v>14.56</v>
       </c>
-      <c r="G70" s="10">
-        <v>14.56</v>
-      </c>
-      <c r="H70" s="11">
-        <v>14.56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71">
         <v>2017</v>
       </c>
-      <c r="B71" s="10">
+      <c r="C71">
         <v>15.88</v>
       </c>
-      <c r="C71">
+      <c r="E71">
         <v>2017</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <v>15.88</v>
       </c>
-      <c r="G71" s="10">
-        <v>15.88</v>
-      </c>
-      <c r="H71" s="11">
-        <v>15.88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72">
         <v>2018</v>
       </c>
-      <c r="B72" s="10">
+      <c r="C72">
         <v>14.97</v>
       </c>
-      <c r="C72">
+      <c r="E72">
         <v>2018</v>
       </c>
-      <c r="D72">
-        <v>14.97</v>
-      </c>
-      <c r="G72" s="10">
-        <v>14.97</v>
-      </c>
-      <c r="H72" s="11">
+      <c r="F72">
         <v>14.97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
